--- a/Documents/Test-Case/Test-Case.xlsx
+++ b/Documents/Test-Case/Test-Case.xlsx
@@ -2,14 +2,17 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DB Habit Test" sheetId="4" r:id="rId2"/>
+    <sheet name="Suggest" sheetId="2" r:id="rId3"/>
+    <sheet name="Group" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="210">
   <si>
     <t>Tên</t>
   </si>
@@ -603,12 +606,78 @@
   <si>
     <t>Đừng suy nghĩ quá nhiều về nước Mĩ</t>
   </si>
+  <si>
+    <t>Tên thói quen</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Học tập &amp; công việc</t>
+  </si>
+  <si>
+    <t>Khác</t>
+  </si>
+  <si>
+    <t>Nên tạo ra xung đột dữ liệu. Trùng tên, trùng nhóm, trùng người sử dụng</t>
+  </si>
+  <si>
+    <t>Chạy vượt dã</t>
+  </si>
+  <si>
+    <t>Chạy bộ hàng ngày</t>
+  </si>
+  <si>
+    <t>Chạy buổi sáng</t>
+  </si>
+  <si>
+    <t>Chạy 10km</t>
+  </si>
+  <si>
+    <t>Số người đã tạo</t>
+  </si>
+  <si>
+    <t>Total track</t>
+  </si>
+  <si>
+    <t>success track</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>xd</t>
+  </si>
+  <si>
+    <t>Loại</t>
+  </si>
+  <si>
+    <t>18 km</t>
+  </si>
+  <si>
+    <t>57cn</t>
+  </si>
+  <si>
+    <t>N.bắt đầu</t>
+  </si>
+  <si>
+    <t>N.kết thúc</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Chạy bộ để có sức khỏe tốt</t>
+  </si>
+  <si>
+    <t>Ghi chép chi tiêu</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -637,6 +706,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -655,18 +731,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -946,24 +1028,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="37.3984375" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" customWidth="1"/>
+    <col min="4" max="4" width="12.59765625" customWidth="1"/>
+    <col min="5" max="5" width="14.1328125" customWidth="1"/>
+    <col min="6" max="6" width="19.265625" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" customWidth="1"/>
-    <col min="9" max="9" width="65.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.86328125" customWidth="1"/>
+    <col min="9" max="9" width="65.73046875" customWidth="1"/>
     <col min="10" max="10" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -995,7 +1077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1027,7 +1109,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1059,7 +1141,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1091,7 +1173,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1123,7 +1205,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1155,7 +1237,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1187,7 +1269,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1219,7 +1301,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1251,7 +1333,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1283,7 +1365,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="21" x14ac:dyDescent="0.65">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1315,7 +1397,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1347,7 +1429,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1379,7 +1461,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1411,7 +1493,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1443,7 +1525,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1475,7 +1557,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1507,7 +1589,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1539,7 +1621,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1571,7 +1653,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1603,7 +1685,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1635,7 +1717,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1667,7 +1749,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1699,7 +1781,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1731,7 +1813,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1763,7 +1845,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1795,7 +1877,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1827,7 +1909,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1859,7 +1941,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1891,7 +1973,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1923,7 +2005,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1955,7 +2037,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1987,7 +2069,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>33</v>
       </c>
@@ -2019,7 +2101,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2051,7 +2133,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2083,7 +2165,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2115,7 +2197,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2147,7 +2229,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2179,7 +2261,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2211,7 +2293,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2243,7 +2325,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2275,7 +2357,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2307,7 +2389,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2339,7 +2421,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2371,7 +2453,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2403,7 +2485,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2435,7 +2517,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2467,7 +2549,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2499,7 +2581,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2531,7 +2613,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2567,4 +2649,1595 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.1328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>204</v>
+      </c>
+      <c r="H3" t="s">
+        <v>207</v>
+      </c>
+      <c r="I3" t="s">
+        <v>207</v>
+      </c>
+      <c r="J3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G222"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="15.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.86328125" customWidth="1"/>
+    <col min="6" max="6" width="10.86328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B1" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>450</v>
+      </c>
+      <c r="E3">
+        <v>1450</v>
+      </c>
+      <c r="F3">
+        <v>1340</v>
+      </c>
+      <c r="G3" s="5">
+        <f>(F3/E3)</f>
+        <v>0.92413793103448272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>13</v>
+      </c>
+      <c r="G4" s="5">
+        <f t="shared" ref="G4:G67" si="0">(F4/E4)</f>
+        <v>0.8666666666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="G8" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G9" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G10" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G11" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G12" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G13" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G14" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G15" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G16" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G17" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G18" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G19" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G20" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G21" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G22" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G23" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="24" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G24" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G25" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G26" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G27" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G28" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G29" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G30" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G31" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G32" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G33" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G34" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G35" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G36" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G37" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G38" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G39" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G40" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G41" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G42" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G43" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G44" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G45" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G46" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G47" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G48" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G49" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G50" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G51" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G52" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G53" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G54" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G55" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G56" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G57" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="58" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G58" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="59" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G59" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="60" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G60" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="61" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G61" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="62" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G62" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="63" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G63" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="64" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G64" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="65" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G65" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="66" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G66" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="67" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G67" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="68" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G68" s="5" t="e">
+        <f t="shared" ref="G68:G131" si="1">(F68/E68)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="69" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G69" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="70" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G70" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="71" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G71" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="72" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G72" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="73" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G73" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="74" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G74" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="75" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G75" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="76" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G76" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="77" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G77" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="78" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G78" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="79" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G79" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="80" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G80" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="81" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G81" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="82" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G82" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="83" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G83" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="84" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G84" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="85" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G85" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="86" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G86" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="87" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G87" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="88" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G88" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="89" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G89" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="90" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G90" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="91" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G91" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="92" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G92" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="93" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G93" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="94" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G94" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="95" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G95" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="96" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G96" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="97" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G97" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="98" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G98" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="99" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G99" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="100" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G100" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="101" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G101" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="102" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G102" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="103" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G103" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="104" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G104" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="105" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G105" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="106" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G106" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="107" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G107" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="108" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G108" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="109" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G109" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="110" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G110" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="111" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G111" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="112" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G112" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="113" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G113" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="114" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G114" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="115" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G115" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="116" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G116" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="117" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G117" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="118" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G118" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="119" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G119" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="120" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G120" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="121" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G121" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="122" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G122" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="123" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G123" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="124" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G124" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="125" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G125" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="126" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G126" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="127" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G127" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="128" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G128" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="129" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G129" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="130" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G130" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="131" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G131" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="132" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G132" s="5" t="e">
+        <f t="shared" ref="G132:G195" si="2">(F132/E132)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="133" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G133" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="134" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G134" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="135" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G135" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="136" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G136" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="137" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G137" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="138" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G138" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="139" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G139" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="140" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G140" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="141" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G141" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="142" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G142" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="143" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G143" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="144" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G144" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="145" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G145" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="146" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G146" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="147" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G147" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="148" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G148" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="149" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G149" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="150" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G150" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="151" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G151" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="152" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G152" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="153" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G153" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="154" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G154" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="155" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G155" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="156" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G156" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="157" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G157" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="158" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G158" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="159" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G159" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="160" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G160" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="161" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G161" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="162" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G162" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="163" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G163" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="164" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G164" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="165" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G165" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="166" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G166" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="167" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G167" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="168" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G168" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="169" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G169" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="170" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G170" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="171" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G171" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="172" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G172" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="173" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G173" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="174" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G174" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="175" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G175" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="176" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G176" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="177" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G177" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="178" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G178" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="179" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G179" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="180" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G180" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="181" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G181" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="182" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G182" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="183" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G183" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="184" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G184" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="185" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G185" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="186" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G186" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="187" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G187" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="188" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G188" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="189" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G189" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="190" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G190" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="191" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G191" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="192" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G192" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="193" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G193" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="194" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G194" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="195" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G195" s="5" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="196" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G196" s="5" t="e">
+        <f t="shared" ref="G196:G222" si="3">(F196/E196)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="197" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G197" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="198" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G198" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="199" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G199" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="200" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G200" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="201" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G201" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="202" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G202" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="203" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G203" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="204" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G204" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="205" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G205" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="206" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G206" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="207" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G207" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="208" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G208" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="209" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G209" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="210" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G210" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="211" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G211" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="212" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G212" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="213" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G213" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="214" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G214" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="215" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G215" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="216" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G216" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="217" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G217" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="218" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G218" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="219" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G219" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="220" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G220" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="221" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G221" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="222" spans="7:7" x14ac:dyDescent="0.45">
+      <c r="G222" s="5" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="3" max="3" width="16.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>